--- a/notebooks/JuliaBasics/Lect06/bonds.xlsx
+++ b/notebooks/JuliaBasics/Lect06/bonds.xlsx
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="C3">
         <v>3.75</v>
@@ -441,7 +441,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C4">
         <v>2.5</v>
@@ -452,10 +452,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>110</v>
+        <v>110.0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
